--- a/web/output-ce.xlsx
+++ b/web/output-ce.xlsx
@@ -28,100 +28,100 @@
     <t>Babayeva Maryam</t>
   </si>
   <si>
+    <t>Musayev Tamerlan</t>
+  </si>
+  <si>
+    <t>Nasirli Javidan</t>
+  </si>
+  <si>
     <t>Huseynli Raziya</t>
   </si>
   <si>
-    <t>Musayev Tamerlan</t>
-  </si>
-  <si>
     <t>Bayaliyev Ruslan</t>
   </si>
   <si>
+    <t>Abdullayev Amin</t>
+  </si>
+  <si>
     <t>Alihumbatova Nazrin</t>
   </si>
   <si>
-    <t>Abdullayev Amin</t>
-  </si>
-  <si>
-    <t>Nasirli Javidan</t>
-  </si>
-  <si>
     <t>Hasanli Safarali</t>
   </si>
   <si>
     <t>Imranova Jeyran</t>
   </si>
   <si>
+    <t>Ibadov Tamerlan</t>
+  </si>
+  <si>
     <t>Muzaffarov Kanan</t>
   </si>
   <si>
-    <t>Ibadov Tamerlan</t>
+    <t>Gurbanov Gurban</t>
+  </si>
+  <si>
+    <t>Purmukhtari Turkan</t>
+  </si>
+  <si>
+    <t>Juvarlinski Novruz</t>
   </si>
   <si>
     <t>Farajli Suleyman</t>
   </si>
   <si>
+    <t>Humbatli Gulnur</t>
+  </si>
+  <si>
+    <t>Samedzade Rufat</t>
+  </si>
+  <si>
     <t>Amrali Zuleykha</t>
   </si>
   <si>
-    <t>Gurbanov Gurban</t>
-  </si>
-  <si>
-    <t>Juvarlinski Novruz</t>
+    <t>Aliyeva Rana</t>
   </si>
   <si>
     <t>Niftaliyeva Ayshan</t>
   </si>
   <si>
-    <t>Aliyeva Rana</t>
-  </si>
-  <si>
-    <t>Purmukhtari Turkan</t>
-  </si>
-  <si>
-    <t>Humbatli Gulnur</t>
-  </si>
-  <si>
     <t>Samadli Murad</t>
   </si>
   <si>
+    <t>Ahmadli Nijat</t>
+  </si>
+  <si>
     <t>Taghiyeva Nargiz</t>
   </si>
   <si>
-    <t>Samedzade Rufat</t>
-  </si>
-  <si>
-    <t>Ahmadli Nijat</t>
-  </si>
-  <si>
     <t>Humbatova Nurlana</t>
   </si>
   <si>
+    <t>Karimli Farid</t>
+  </si>
+  <si>
     <t>Abdullayev Muhammad</t>
   </si>
   <si>
-    <t>Karimli Farid</t>
+    <t>Javadzada Mushfig</t>
   </si>
   <si>
     <t>Huseynova Lala</t>
   </si>
   <si>
-    <t>Javadzada Mushfig</t>
+    <t>Ahmadova Fatima</t>
+  </si>
+  <si>
+    <t>Aghazada Aykhan</t>
   </si>
   <si>
     <t>Khudiyeva Maryam</t>
   </si>
   <si>
-    <t>Ahmadova Fatima</t>
-  </si>
-  <si>
     <t>Mukhtarli Ahliman</t>
   </si>
   <si>
     <t>Aliyev Omar</t>
-  </si>
-  <si>
-    <t>Aghazada Aykhan</t>
   </si>
   <si>
     <t>Idrisov Tajuddin</t>
@@ -522,7 +522,7 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>8.79325</v>
+        <v>15.562</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -536,7 +536,7 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <v>8.137861111111111</v>
+        <v>15.05622222222222</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -550,7 +550,7 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>8.049138888888889</v>
+        <v>14.83483333333333</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -564,7 +564,7 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>8.000444444444446</v>
+        <v>14.76661111111111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -578,7 +578,7 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>7.893777777777776</v>
+        <v>14.71986111111111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -592,7 +592,7 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>7.705472222222221</v>
+        <v>14.52713888888889</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -606,7 +606,7 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>7.651083333333332</v>
+        <v>14.42211111111111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -620,7 +620,7 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <v>7.467277777777777</v>
+        <v>14.16402777777778</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -634,7 +634,7 @@
         <v>40</v>
       </c>
       <c r="D10">
-        <v>7.357555555555555</v>
+        <v>13.98547222222222</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -648,7 +648,7 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>7.327500000000001</v>
+        <v>13.73741666666667</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -662,7 +662,7 @@
         <v>40</v>
       </c>
       <c r="D12">
-        <v>7.286166666666666</v>
+        <v>13.20208333333334</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="D13">
-        <v>6.777055555555555</v>
+        <v>12.99747222222222</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -690,7 +690,7 @@
         <v>40</v>
       </c>
       <c r="D14">
-        <v>6.746861111111111</v>
+        <v>12.84441666666667</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>6.692888888888888</v>
+        <v>12.74955555555556</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -718,7 +718,7 @@
         <v>40</v>
       </c>
       <c r="D16">
-        <v>6.661222222222221</v>
+        <v>12.74372222222222</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -732,7 +732,7 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>6.608611111111111</v>
+        <v>12.37661111111111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -746,7 +746,7 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>6.520555555555554</v>
+        <v>12.29105555555556</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -760,7 +760,7 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <v>6.496916666666666</v>
+        <v>12.02394444444445</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -774,7 +774,7 @@
         <v>40</v>
       </c>
       <c r="D20">
-        <v>6.432027777777779</v>
+        <v>11.85388888888889</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -788,7 +788,7 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>6.404472222222221</v>
+        <v>11.62652777777778</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -802,7 +802,7 @@
         <v>40</v>
       </c>
       <c r="D22">
-        <v>6.214444444444445</v>
+        <v>11.53530555555555</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -816,7 +816,7 @@
         <v>40</v>
       </c>
       <c r="D23">
-        <v>6.156138888888887</v>
+        <v>11.25327777777778</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -830,7 +830,7 @@
         <v>40</v>
       </c>
       <c r="D24">
-        <v>5.852861111111111</v>
+        <v>10.93194444444444</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -844,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="D25">
-        <v>5.613777777777778</v>
+        <v>10.34877777777778</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -858,7 +858,7 @@
         <v>40</v>
       </c>
       <c r="D26">
-        <v>4.876888888888889</v>
+        <v>10.03538888888889</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -872,7 +872,7 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <v>4.668722222222222</v>
+        <v>9.678972222222223</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -886,7 +886,7 @@
         <v>40</v>
       </c>
       <c r="D28">
-        <v>4.202888888888889</v>
+        <v>8.52136111111111</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -900,7 +900,7 @@
         <v>40</v>
       </c>
       <c r="D29">
-        <v>4.083027777777778</v>
+        <v>8.477055555555555</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -914,7 +914,7 @@
         <v>40</v>
       </c>
       <c r="D30">
-        <v>3.763833333333333</v>
+        <v>7.503527777777777</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -928,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="D31">
-        <v>3.426861111111112</v>
+        <v>7.251138888888888</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -942,7 +942,7 @@
         <v>40</v>
       </c>
       <c r="D32">
-        <v>3.265111111111112</v>
+        <v>7.211750000000003</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -956,7 +956,7 @@
         <v>40</v>
       </c>
       <c r="D33">
-        <v>3.002472222222223</v>
+        <v>7.125944444444444</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -970,7 +970,7 @@
         <v>40</v>
       </c>
       <c r="D34">
-        <v>2.746972222222222</v>
+        <v>7.070805555555555</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -984,7 +984,7 @@
         <v>40</v>
       </c>
       <c r="D35">
-        <v>2.550333333333334</v>
+        <v>6.547416666666667</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -998,7 +998,7 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>2.350583333333333</v>
+        <v>5.310166666666667</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>40</v>
       </c>
       <c r="D37">
-        <v>1.279555555555556</v>
+        <v>3.387888888888889</v>
       </c>
     </row>
     <row r="38" spans="1:4">
